--- a/docs/status_tracker/status_tracker.xlsx
+++ b/docs/status_tracker/status_tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raysu\Documents\GitHub\stackoverflow\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raysu\Documents\GitHub\stackoverflow\docs\status_tracker\status_tracker_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A11930-9C27-48C4-BF76-BEF4981B72C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98229E7-86D8-4CB8-B4CB-9CB7079F3C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="68820" yWindow="915" windowWidth="5880" windowHeight="4470" xr2:uid="{0F5BC0B2-6D82-40C9-979B-17394DD3BC60}"/>
+    <workbookView xWindow="65370" yWindow="2115" windowWidth="5880" windowHeight="4470" xr2:uid="{0F5BC0B2-6D82-40C9-979B-17394DD3BC60}"/>
   </bookViews>
   <sheets>
     <sheet name="StackoverFlowContrib" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="10">
   <si>
     <t>SL#</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>Resources Added</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Num Keywords</t>
@@ -246,427 +234,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -692,214 +260,19 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -937,24 +310,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -997,6 +352,39 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1032,34 +420,204 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1075,18 +633,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C73240F7-389D-46C4-AAC3-F879974266F8}" name="Table1" displayName="Table1" ref="A1:G35" totalsRowShown="0" headerRowDxfId="71" dataDxfId="66" headerRowBorderDxfId="73" tableBorderDxfId="74" totalsRowBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C73240F7-389D-46C4-AAC3-F879974266F8}" name="Table1" displayName="Table1" ref="A1:G35" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G35" xr:uid="{6AF18BA4-4091-48B2-84DF-2557ABA727A0}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7251090D-45DA-4261-B367-FAD5CDE1526F}" name="SL#" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{7251090D-45DA-4261-B367-FAD5CDE1526F}" name="SL#" dataDxfId="6">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FC6E2950-1105-4549-B086-FE9564A478FD}" name="Q_Num" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{183CF4E8-291A-4BEA-88F3-1AE041564AEC}" name="Num Keywords" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{C0AB7F3A-231B-4F77-8C65-B4E8F91A7D8A}" name="Q Added to Repo" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{40E26D51-4002-41A7-962E-D3C2B68FDBE1}" name="Resources Folder Needed" dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{2DB7C02F-F67F-4450-80E6-140557435011}" name="Resources Added" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{8C5B8ACA-61FE-412E-B98B-1D84CECB3FA3}" name="All Clear" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{FC6E2950-1105-4549-B086-FE9564A478FD}" name="Q_Num" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{183CF4E8-291A-4BEA-88F3-1AE041564AEC}" name="Num Keywords" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C0AB7F3A-231B-4F77-8C65-B4E8F91A7D8A}" name="Q Added to Repo" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{40E26D51-4002-41A7-962E-D3C2B68FDBE1}" name="Resources Folder Needed" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{2DB7C02F-F67F-4450-80E6-140557435011}" name="Resources Added" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{8C5B8ACA-61FE-412E-B98B-1D84CECB3FA3}" name="All Clear" dataDxfId="0">
       <calculatedColumnFormula>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1394,10 +952,10 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1419,10 +977,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -1431,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1446,13 +1004,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1471,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1496,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1521,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1546,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1571,13 +1129,13 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G7" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1596,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G8" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1621,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G9" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1646,13 +1204,13 @@
         <v>0</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1671,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1696,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1721,13 +1279,13 @@
         <v>0</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1746,13 +1304,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G14" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1771,13 +1329,13 @@
         <v>0</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1796,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G16" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1821,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1846,13 +1404,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -1864,22 +1422,24 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7">
+        <v>61295929</v>
+      </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1887,22 +1447,24 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7">
+        <v>61312473</v>
+      </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G20" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1910,22 +1472,24 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7">
+        <v>61281645</v>
+      </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1933,22 +1497,24 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7">
+        <v>61608188</v>
+      </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G22" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1956,22 +1522,24 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="7">
+        <v>61605998</v>
+      </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1979,22 +1547,24 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7">
+        <v>61294289</v>
+      </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G24" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2007,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G25" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2030,13 +1600,13 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G26" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2053,13 +1623,13 @@
         <v>0</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G27" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2076,13 +1646,13 @@
         <v>0</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2099,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G29" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2122,13 +1692,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G30" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2145,13 +1715,13 @@
         <v>0</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G31" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2168,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G32" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2191,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G33" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2214,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G34" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2237,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G35" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
@@ -2252,86 +1822,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="41" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="3" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C35">
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E35">
-    <cfRule type="cellIs" dxfId="30" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F35">
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G35">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D35">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"P"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:F35" xr:uid="{22E966F0-D515-4374-8B92-DB5671F0E4AD}">
       <formula1>"Y,N"</formula1>
     </dataValidation>

--- a/docs/status_tracker/status_tracker.xlsx
+++ b/docs/status_tracker/status_tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raysu\Documents\GitHub\stackoverflow\docs\status_tracker\status_tracker_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raysu\Documents\GitHub\stackoverflow\docs\status_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F98229E7-86D8-4CB8-B4CB-9CB7079F3C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E86D4F0-FB36-447E-9E28-E9B7A0D30528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65370" yWindow="2115" windowWidth="5880" windowHeight="4470" xr2:uid="{0F5BC0B2-6D82-40C9-979B-17394DD3BC60}"/>
+    <workbookView xWindow="61680" yWindow="2745" windowWidth="11760" windowHeight="8835" xr2:uid="{0F5BC0B2-6D82-40C9-979B-17394DD3BC60}"/>
   </bookViews>
   <sheets>
     <sheet name="StackoverFlowContrib" sheetId="1" r:id="rId1"/>
@@ -955,7 +955,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -964,7 +964,7 @@
     <col min="2" max="2" width="13.47265625" customWidth="1"/>
     <col min="3" max="3" width="13.83984375" customWidth="1"/>
     <col min="4" max="4" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="20.83984375" customWidth="1"/>
+    <col min="5" max="5" width="15.26171875" customWidth="1"/>
     <col min="6" max="6" width="15.9453125" customWidth="1"/>
     <col min="7" max="7" width="9.1015625" customWidth="1"/>
   </cols>

--- a/docs/status_tracker/status_tracker.xlsx
+++ b/docs/status_tracker/status_tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raysu\Documents\GitHub\stackoverflow\docs\status_tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E86D4F0-FB36-447E-9E28-E9B7A0D30528}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0A20EA-D27F-46BE-BD0A-342B27B0DE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61680" yWindow="2745" windowWidth="11760" windowHeight="8835" xr2:uid="{0F5BC0B2-6D82-40C9-979B-17394DD3BC60}"/>
   </bookViews>
@@ -949,13 +949,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD35847-8EA6-49FB-B83E-960CF03717DB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1572,12 +1575,14 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7">
+        <v>61280686</v>
+      </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>6</v>
@@ -1587,7 +1592,7 @@
       </c>
       <c r="G25" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1595,12 +1600,14 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="7">
+        <v>61220048</v>
+      </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>6</v>
@@ -1610,7 +1617,7 @@
       </c>
       <c r="G26" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1618,12 +1625,14 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="7">
+        <v>60878856</v>
+      </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>6</v>
@@ -1633,7 +1642,7 @@
       </c>
       <c r="G27" s="5" t="str">
         <f>IF(OR(NOT(Table1[[#This Row],[Q Added to Repo]]="Y"),Table1[[#This Row],[Num Keywords]]=0,AND(Table1[[#This Row],[Resources Folder Needed]]="Y",Table1[[#This Row],[Resources Added]]="N")),"N","Y")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1912,8 +1921,13 @@
       <formula1>"Y,N,P"</formula1>
     </dataValidation>
   </dataValidations>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;D &amp;T&amp;C&amp;P&amp;R&amp;F</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
